--- a/data/Generation of Nepal.xlsx
+++ b/data/Generation of Nepal.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\View_Finders\Visualizer\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GenderWiseAge" sheetId="1" r:id="rId1"/>
     <sheet name="Geography" sheetId="2" r:id="rId2"/>
     <sheet name="view" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="767">
   <si>
     <t>ageGroup</t>
   </si>
@@ -2311,19 +2316,30 @@
   </si>
   <si>
     <t>2022-06-26</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2334,7 +2350,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2342,18 +2358,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2400,7 +2443,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2432,9 +2475,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2466,6 +2510,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2641,14 +2686,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2659,7 +2704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2670,7 +2715,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2681,7 +2726,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2689,10 +2734,10 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>17.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2703,7 +2748,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2714,7 +2759,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2725,7 +2770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -2736,7 +2781,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2747,7 +2792,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -2758,7 +2803,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2769,7 +2814,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -2780,7 +2825,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -2797,14 +2842,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -2820,8 +2867,14 @@
       <c r="E1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2835,10 +2888,16 @@
         <v>208</v>
       </c>
       <c r="E2">
-        <v>9.460000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="F2" s="1">
+        <v>24.000248800000001</v>
+      </c>
+      <c r="G2" s="1">
+        <v>53.999482899999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -2854,8 +2913,14 @@
       <c r="E3">
         <v>17.79</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="1">
+        <v>-24.776108600000001</v>
+      </c>
+      <c r="G3" s="1">
+        <v>134.755</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2871,8 +2936,14 @@
       <c r="E4">
         <v>1.44</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="1">
+        <v>24.4769288</v>
+      </c>
+      <c r="G4" s="1">
+        <v>90.293441299999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -2886,10 +2957,16 @@
         <v>384</v>
       </c>
       <c r="E5">
-        <v>17.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="F5" s="1">
+        <v>61.066692199999999</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-107.99170700000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -2905,8 +2982,14 @@
       <c r="E6">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="1">
+        <v>34.982301800000002</v>
+      </c>
+      <c r="G6" s="1">
+        <v>33.145128499999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -2922,8 +3005,14 @@
       <c r="E7">
         <v>28.59</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="1">
+        <v>51.1638175</v>
+      </c>
+      <c r="G7" s="1">
+        <v>10.447831300000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -2939,8 +3028,14 @@
       <c r="E8">
         <v>14.46</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="1">
+        <v>55.670248999999998</v>
+      </c>
+      <c r="G8" s="1">
+        <v>10.3333283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -2956,8 +3051,14 @@
       <c r="E9">
         <v>29.16</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="1">
+        <v>63.246777700000003</v>
+      </c>
+      <c r="G9" s="1">
+        <v>25.920916399999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -2973,8 +3074,14 @@
       <c r="E10">
         <v>1.29</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="1">
+        <v>46.603354000000003</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1.8883335000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -2990,8 +3097,14 @@
       <c r="E11">
         <v>18.29</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="1">
+        <v>54.702354499999998</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-3.2765753000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -3007,8 +3120,14 @@
       <c r="E12">
         <v>12.12</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="1">
+        <v>22.350626999999999</v>
+      </c>
+      <c r="G12" s="1">
+        <v>114.1849161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -3024,8 +3143,14 @@
       <c r="E13">
         <v>6.07</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="1">
+        <v>52.865195999999997</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-7.9794599000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -3041,8 +3166,14 @@
       <c r="E14">
         <v>6.54</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="1">
+        <v>22.351114800000001</v>
+      </c>
+      <c r="G14" s="1">
+        <v>78.667742799999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -3058,8 +3189,14 @@
       <c r="E15">
         <v>17.04</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="1">
+        <v>36.5748441</v>
+      </c>
+      <c r="G15" s="1">
+        <v>139.23941790000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -3075,8 +3212,14 @@
       <c r="E16">
         <v>4.04</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="1">
+        <v>12.543321600000001</v>
+      </c>
+      <c r="G16" s="1">
+        <v>104.81449139999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -3092,8 +3235,14 @@
       <c r="E17">
         <v>14.76</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="1">
+        <v>36.638392000000003</v>
+      </c>
+      <c r="G17" s="1">
+        <v>127.69611879999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -3109,8 +3258,14 @@
       <c r="E18">
         <v>29.24</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="1">
+        <v>29.273396399999999</v>
+      </c>
+      <c r="G18" s="1">
+        <v>47.497947600000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -3126,8 +3281,14 @@
       <c r="E19">
         <v>9.07</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" s="1">
+        <v>39.783730400000003</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-100.445882</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -3143,8 +3304,14 @@
       <c r="E20">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" s="1">
+        <v>28.108392899999998</v>
+      </c>
+      <c r="G20" s="1">
+        <v>84.091713900000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -3160,8 +3327,14 @@
       <c r="E21">
         <v>7.88</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" s="1">
+        <v>-41.500083099999998</v>
+      </c>
+      <c r="G21" s="1">
+        <v>172.83440770000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -3177,8 +3350,14 @@
       <c r="E22">
         <v>6.14</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" s="1">
+        <v>12.750348600000001</v>
+      </c>
+      <c r="G22" s="1">
+        <v>122.7312101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -3192,10 +3371,16 @@
         <v>16</v>
       </c>
       <c r="E23">
-        <v>1.12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F23" s="1">
+        <v>30.3308401</v>
+      </c>
+      <c r="G23" s="1">
+        <v>71.247499000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -3211,8 +3396,14 @@
       <c r="E24">
         <v>18.54</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -3228,8 +3419,14 @@
       <c r="E25">
         <v>7.76</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" s="1">
+        <v>25.333698399999999</v>
+      </c>
+      <c r="G25" s="1">
+        <v>51.229529499999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -3245,8 +3442,14 @@
       <c r="E26">
         <v>9.85</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" s="1">
+        <v>25.624261799999999</v>
+      </c>
+      <c r="G26" s="1">
+        <v>42.352832800000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -3262,8 +3465,14 @@
       <c r="E27">
         <v>28.94</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" s="1">
+        <v>59.674971200000002</v>
+      </c>
+      <c r="G27" s="1">
+        <v>14.5208584</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -3278,6 +3487,12 @@
       </c>
       <c r="E28">
         <v>16.61</v>
+      </c>
+      <c r="F28" s="1">
+        <v>39.783730400000003</v>
+      </c>
+      <c r="G28" s="1">
+        <v>-100.445882</v>
       </c>
     </row>
   </sheetData>
@@ -3286,14 +3501,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C721"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -3304,7 +3519,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -3315,7 +3530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -3326,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -3337,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -3348,7 +3563,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -3359,7 +3574,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3370,7 +3585,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -3381,7 +3596,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -3392,7 +3607,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -3403,7 +3618,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -3414,7 +3629,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -3425,7 +3640,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -3436,7 +3651,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -3447,7 +3662,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -3458,7 +3673,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -3469,7 +3684,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -3480,7 +3695,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -3491,7 +3706,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -3502,7 +3717,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -3513,7 +3728,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -3524,7 +3739,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -3535,7 +3750,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -3546,7 +3761,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -3557,7 +3772,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>68</v>
       </c>
@@ -3568,7 +3783,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -3579,7 +3794,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -3590,7 +3805,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -3601,7 +3816,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>72</v>
       </c>
@@ -3612,7 +3827,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -3623,7 +3838,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>74</v>
       </c>
@@ -3634,7 +3849,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -3645,7 +3860,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>76</v>
       </c>
@@ -3656,7 +3871,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -3667,7 +3882,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>78</v>
       </c>
@@ -3678,7 +3893,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -3689,7 +3904,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -3700,7 +3915,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -3711,7 +3926,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -3722,7 +3937,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>83</v>
       </c>
@@ -3733,7 +3948,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -3744,7 +3959,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -3755,7 +3970,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -3766,7 +3981,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -3777,7 +3992,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -3788,7 +4003,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>89</v>
       </c>
@@ -3799,7 +4014,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -3810,7 +4025,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -3821,7 +4036,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>92</v>
       </c>
@@ -3832,7 +4047,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>93</v>
       </c>
@@ -3843,7 +4058,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>94</v>
       </c>
@@ -3854,7 +4069,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>95</v>
       </c>
@@ -3865,7 +4080,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>96</v>
       </c>
@@ -3876,7 +4091,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>97</v>
       </c>
@@ -3887,7 +4102,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>98</v>
       </c>
@@ -3898,7 +4113,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>99</v>
       </c>
@@ -3909,7 +4124,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>100</v>
       </c>
@@ -3920,7 +4135,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>101</v>
       </c>
@@ -3931,7 +4146,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>102</v>
       </c>
@@ -3942,7 +4157,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>103</v>
       </c>
@@ -3953,7 +4168,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>104</v>
       </c>
@@ -3964,7 +4179,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>105</v>
       </c>
@@ -3975,7 +4190,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>106</v>
       </c>
@@ -3986,7 +4201,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>107</v>
       </c>
@@ -3997,7 +4212,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>108</v>
       </c>
@@ -4008,7 +4223,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>109</v>
       </c>
@@ -4019,7 +4234,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>110</v>
       </c>
@@ -4030,7 +4245,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>111</v>
       </c>
@@ -4041,7 +4256,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>112</v>
       </c>
@@ -4052,7 +4267,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>113</v>
       </c>
@@ -4063,7 +4278,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>114</v>
       </c>
@@ -4074,7 +4289,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>115</v>
       </c>
@@ -4085,7 +4300,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>116</v>
       </c>
@@ -4096,7 +4311,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>117</v>
       </c>
@@ -4107,7 +4322,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>118</v>
       </c>
@@ -4118,7 +4333,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>119</v>
       </c>
@@ -4129,7 +4344,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>120</v>
       </c>
@@ -4140,7 +4355,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>121</v>
       </c>
@@ -4151,7 +4366,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>122</v>
       </c>
@@ -4162,7 +4377,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>123</v>
       </c>
@@ -4173,7 +4388,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>124</v>
       </c>
@@ -4184,7 +4399,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>125</v>
       </c>
@@ -4195,7 +4410,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>126</v>
       </c>
@@ -4206,7 +4421,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>127</v>
       </c>
@@ -4217,7 +4432,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>128</v>
       </c>
@@ -4228,7 +4443,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>129</v>
       </c>
@@ -4239,7 +4454,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>130</v>
       </c>
@@ -4250,7 +4465,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>131</v>
       </c>
@@ -4261,7 +4476,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>132</v>
       </c>
@@ -4272,7 +4487,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>133</v>
       </c>
@@ -4283,7 +4498,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>134</v>
       </c>
@@ -4294,7 +4509,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>135</v>
       </c>
@@ -4305,7 +4520,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>136</v>
       </c>
@@ -4316,7 +4531,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>137</v>
       </c>
@@ -4327,7 +4542,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>138</v>
       </c>
@@ -4338,7 +4553,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>139</v>
       </c>
@@ -4349,7 +4564,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>140</v>
       </c>
@@ -4360,7 +4575,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>141</v>
       </c>
@@ -4371,7 +4586,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>142</v>
       </c>
@@ -4382,7 +4597,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>143</v>
       </c>
@@ -4393,7 +4608,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>144</v>
       </c>
@@ -4404,7 +4619,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>145</v>
       </c>
@@ -4415,7 +4630,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>146</v>
       </c>
@@ -4426,7 +4641,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>147</v>
       </c>
@@ -4437,7 +4652,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>148</v>
       </c>
@@ -4448,7 +4663,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>149</v>
       </c>
@@ -4459,7 +4674,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>150</v>
       </c>
@@ -4470,7 +4685,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>151</v>
       </c>
@@ -4481,7 +4696,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>152</v>
       </c>
@@ -4492,7 +4707,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>153</v>
       </c>
@@ -4503,7 +4718,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>154</v>
       </c>
@@ -4514,7 +4729,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>155</v>
       </c>
@@ -4525,7 +4740,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>156</v>
       </c>
@@ -4536,7 +4751,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>157</v>
       </c>
@@ -4547,7 +4762,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>158</v>
       </c>
@@ -4558,7 +4773,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>159</v>
       </c>
@@ -4569,7 +4784,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>160</v>
       </c>
@@ -4580,7 +4795,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>161</v>
       </c>
@@ -4591,7 +4806,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>162</v>
       </c>
@@ -4602,7 +4817,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>163</v>
       </c>
@@ -4613,7 +4828,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>164</v>
       </c>
@@ -4624,7 +4839,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>165</v>
       </c>
@@ -4635,7 +4850,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>166</v>
       </c>
@@ -4646,7 +4861,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>167</v>
       </c>
@@ -4657,7 +4872,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>168</v>
       </c>
@@ -4668,7 +4883,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>169</v>
       </c>
@@ -4679,7 +4894,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>170</v>
       </c>
@@ -4690,7 +4905,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>171</v>
       </c>
@@ -4701,7 +4916,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>172</v>
       </c>
@@ -4712,7 +4927,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>173</v>
       </c>
@@ -4723,7 +4938,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>174</v>
       </c>
@@ -4734,7 +4949,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>175</v>
       </c>
@@ -4745,7 +4960,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>176</v>
       </c>
@@ -4756,7 +4971,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>177</v>
       </c>
@@ -4767,7 +4982,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>178</v>
       </c>
@@ -4778,7 +4993,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>179</v>
       </c>
@@ -4789,7 +5004,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>180</v>
       </c>
@@ -4800,7 +5015,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>181</v>
       </c>
@@ -4811,7 +5026,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>182</v>
       </c>
@@ -4822,7 +5037,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>183</v>
       </c>
@@ -4833,7 +5048,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>184</v>
       </c>
@@ -4844,7 +5059,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>185</v>
       </c>
@@ -4855,7 +5070,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>186</v>
       </c>
@@ -4866,7 +5081,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>187</v>
       </c>
@@ -4877,7 +5092,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>188</v>
       </c>
@@ -4888,7 +5103,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>189</v>
       </c>
@@ -4899,7 +5114,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>190</v>
       </c>
@@ -4910,7 +5125,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>191</v>
       </c>
@@ -4921,7 +5136,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>192</v>
       </c>
@@ -4932,7 +5147,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>193</v>
       </c>
@@ -4943,7 +5158,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>194</v>
       </c>
@@ -4954,7 +5169,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>195</v>
       </c>
@@ -4965,7 +5180,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>196</v>
       </c>
@@ -4976,7 +5191,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>197</v>
       </c>
@@ -4987,7 +5202,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>198</v>
       </c>
@@ -4998,7 +5213,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>199</v>
       </c>
@@ -5009,7 +5224,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>200</v>
       </c>
@@ -5020,7 +5235,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>201</v>
       </c>
@@ -5031,7 +5246,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>202</v>
       </c>
@@ -5042,7 +5257,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>203</v>
       </c>
@@ -5053,7 +5268,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>204</v>
       </c>
@@ -5064,7 +5279,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>205</v>
       </c>
@@ -5075,7 +5290,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>206</v>
       </c>
@@ -5086,7 +5301,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>207</v>
       </c>
@@ -5097,7 +5312,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>208</v>
       </c>
@@ -5108,7 +5323,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>209</v>
       </c>
@@ -5119,7 +5334,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>210</v>
       </c>
@@ -5130,7 +5345,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>211</v>
       </c>
@@ -5141,7 +5356,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>212</v>
       </c>
@@ -5152,7 +5367,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>213</v>
       </c>
@@ -5163,7 +5378,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>214</v>
       </c>
@@ -5174,7 +5389,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>215</v>
       </c>
@@ -5185,7 +5400,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>216</v>
       </c>
@@ -5196,7 +5411,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>217</v>
       </c>
@@ -5207,7 +5422,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>218</v>
       </c>
@@ -5218,7 +5433,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>219</v>
       </c>
@@ -5229,7 +5444,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>220</v>
       </c>
@@ -5240,7 +5455,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>221</v>
       </c>
@@ -5251,7 +5466,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>222</v>
       </c>
@@ -5262,7 +5477,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>223</v>
       </c>
@@ -5273,7 +5488,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>224</v>
       </c>
@@ -5284,7 +5499,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>225</v>
       </c>
@@ -5295,7 +5510,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>226</v>
       </c>
@@ -5306,7 +5521,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>227</v>
       </c>
@@ -5317,7 +5532,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>228</v>
       </c>
@@ -5328,7 +5543,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>229</v>
       </c>
@@ -5339,7 +5554,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>230</v>
       </c>
@@ -5350,7 +5565,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>231</v>
       </c>
@@ -5361,7 +5576,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>232</v>
       </c>
@@ -5372,7 +5587,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>233</v>
       </c>
@@ -5383,7 +5598,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>234</v>
       </c>
@@ -5394,7 +5609,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>235</v>
       </c>
@@ -5405,7 +5620,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>236</v>
       </c>
@@ -5416,7 +5631,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>237</v>
       </c>
@@ -5427,7 +5642,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>238</v>
       </c>
@@ -5438,7 +5653,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>239</v>
       </c>
@@ -5449,7 +5664,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>240</v>
       </c>
@@ -5460,7 +5675,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>241</v>
       </c>
@@ -5471,7 +5686,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>242</v>
       </c>
@@ -5482,7 +5697,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>243</v>
       </c>
@@ -5493,7 +5708,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>244</v>
       </c>
@@ -5504,7 +5719,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>245</v>
       </c>
@@ -5515,7 +5730,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>246</v>
       </c>
@@ -5526,7 +5741,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>247</v>
       </c>
@@ -5537,7 +5752,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>248</v>
       </c>
@@ -5548,7 +5763,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>249</v>
       </c>
@@ -5559,7 +5774,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>250</v>
       </c>
@@ -5570,7 +5785,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>251</v>
       </c>
@@ -5581,7 +5796,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>252</v>
       </c>
@@ -5592,7 +5807,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>253</v>
       </c>
@@ -5603,7 +5818,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>254</v>
       </c>
@@ -5614,7 +5829,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>255</v>
       </c>
@@ -5625,7 +5840,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>256</v>
       </c>
@@ -5636,7 +5851,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>257</v>
       </c>
@@ -5647,7 +5862,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>258</v>
       </c>
@@ -5658,7 +5873,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>259</v>
       </c>
@@ -5669,7 +5884,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>260</v>
       </c>
@@ -5680,7 +5895,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>261</v>
       </c>
@@ -5691,7 +5906,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>262</v>
       </c>
@@ -5702,7 +5917,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>263</v>
       </c>
@@ -5713,7 +5928,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>264</v>
       </c>
@@ -5724,7 +5939,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>265</v>
       </c>
@@ -5735,7 +5950,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>266</v>
       </c>
@@ -5746,7 +5961,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>267</v>
       </c>
@@ -5757,7 +5972,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>268</v>
       </c>
@@ -5768,7 +5983,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>269</v>
       </c>
@@ -5779,7 +5994,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>270</v>
       </c>
@@ -5790,7 +6005,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>271</v>
       </c>
@@ -5801,7 +6016,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>272</v>
       </c>
@@ -5812,7 +6027,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>273</v>
       </c>
@@ -5823,7 +6038,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>274</v>
       </c>
@@ -5834,7 +6049,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>275</v>
       </c>
@@ -5845,7 +6060,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>276</v>
       </c>
@@ -5856,7 +6071,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>277</v>
       </c>
@@ -5867,7 +6082,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>278</v>
       </c>
@@ -5878,7 +6093,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>279</v>
       </c>
@@ -5889,7 +6104,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>280</v>
       </c>
@@ -5900,7 +6115,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>281</v>
       </c>
@@ -5911,7 +6126,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>282</v>
       </c>
@@ -5922,7 +6137,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>283</v>
       </c>
@@ -5933,7 +6148,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>284</v>
       </c>
@@ -5944,7 +6159,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>285</v>
       </c>
@@ -5955,7 +6170,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>286</v>
       </c>
@@ -5966,7 +6181,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>287</v>
       </c>
@@ -5977,7 +6192,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>288</v>
       </c>
@@ -5988,7 +6203,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>289</v>
       </c>
@@ -5999,7 +6214,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>290</v>
       </c>
@@ -6010,7 +6225,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>291</v>
       </c>
@@ -6021,7 +6236,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>292</v>
       </c>
@@ -6032,7 +6247,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>293</v>
       </c>
@@ -6043,7 +6258,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>294</v>
       </c>
@@ -6054,7 +6269,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>295</v>
       </c>
@@ -6065,7 +6280,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>296</v>
       </c>
@@ -6076,7 +6291,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>297</v>
       </c>
@@ -6087,7 +6302,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>298</v>
       </c>
@@ -6098,7 +6313,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>299</v>
       </c>
@@ -6109,7 +6324,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>300</v>
       </c>
@@ -6120,7 +6335,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>301</v>
       </c>
@@ -6131,7 +6346,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>302</v>
       </c>
@@ -6142,7 +6357,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>303</v>
       </c>
@@ -6153,7 +6368,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>304</v>
       </c>
@@ -6164,7 +6379,7 @@
         <v>3604</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>305</v>
       </c>
@@ -6175,7 +6390,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>306</v>
       </c>
@@ -6186,7 +6401,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>307</v>
       </c>
@@ -6197,7 +6412,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>308</v>
       </c>
@@ -6208,7 +6423,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>309</v>
       </c>
@@ -6219,7 +6434,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>310</v>
       </c>
@@ -6230,7 +6445,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>311</v>
       </c>
@@ -6241,7 +6456,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>312</v>
       </c>
@@ -6252,7 +6467,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>313</v>
       </c>
@@ -6263,7 +6478,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>314</v>
       </c>
@@ -6274,7 +6489,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>315</v>
       </c>
@@ -6285,7 +6500,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>316</v>
       </c>
@@ -6296,7 +6511,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>317</v>
       </c>
@@ -6307,7 +6522,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>318</v>
       </c>
@@ -6318,7 +6533,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>319</v>
       </c>
@@ -6329,7 +6544,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>320</v>
       </c>
@@ -6340,7 +6555,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>321</v>
       </c>
@@ -6351,7 +6566,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>322</v>
       </c>
@@ -6362,7 +6577,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>323</v>
       </c>
@@ -6373,7 +6588,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>324</v>
       </c>
@@ -6384,7 +6599,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>325</v>
       </c>
@@ -6395,7 +6610,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>326</v>
       </c>
@@ -6406,7 +6621,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>327</v>
       </c>
@@ -6417,7 +6632,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>328</v>
       </c>
@@ -6428,7 +6643,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>329</v>
       </c>
@@ -6439,7 +6654,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>330</v>
       </c>
@@ -6450,7 +6665,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>331</v>
       </c>
@@ -6461,7 +6676,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>332</v>
       </c>
@@ -6472,7 +6687,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>333</v>
       </c>
@@ -6483,7 +6698,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>334</v>
       </c>
@@ -6494,7 +6709,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>335</v>
       </c>
@@ -6505,7 +6720,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>336</v>
       </c>
@@ -6516,7 +6731,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>337</v>
       </c>
@@ -6527,7 +6742,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>338</v>
       </c>
@@ -6538,7 +6753,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>339</v>
       </c>
@@ -6549,7 +6764,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>340</v>
       </c>
@@ -6560,7 +6775,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>341</v>
       </c>
@@ -6571,7 +6786,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>342</v>
       </c>
@@ -6582,7 +6797,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>343</v>
       </c>
@@ -6593,7 +6808,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>344</v>
       </c>
@@ -6604,7 +6819,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>345</v>
       </c>
@@ -6615,7 +6830,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>346</v>
       </c>
@@ -6626,7 +6841,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>347</v>
       </c>
@@ -6637,7 +6852,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>348</v>
       </c>
@@ -6648,7 +6863,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>349</v>
       </c>
@@ -6659,7 +6874,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>350</v>
       </c>
@@ -6670,7 +6885,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>351</v>
       </c>
@@ -6681,7 +6896,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>352</v>
       </c>
@@ -6692,7 +6907,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>353</v>
       </c>
@@ -6703,7 +6918,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>354</v>
       </c>
@@ -6714,7 +6929,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>355</v>
       </c>
@@ -6725,7 +6940,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>356</v>
       </c>
@@ -6736,7 +6951,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>357</v>
       </c>
@@ -6747,7 +6962,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>358</v>
       </c>
@@ -6758,7 +6973,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>359</v>
       </c>
@@ -6769,7 +6984,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>360</v>
       </c>
@@ -6780,7 +6995,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>361</v>
       </c>
@@ -6791,7 +7006,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>362</v>
       </c>
@@ -6802,7 +7017,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>363</v>
       </c>
@@ -6813,7 +7028,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>364</v>
       </c>
@@ -6824,7 +7039,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>365</v>
       </c>
@@ -6835,7 +7050,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>366</v>
       </c>
@@ -6846,7 +7061,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>367</v>
       </c>
@@ -6857,7 +7072,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>368</v>
       </c>
@@ -6868,7 +7083,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>369</v>
       </c>
@@ -6879,7 +7094,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>370</v>
       </c>
@@ -6890,7 +7105,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>371</v>
       </c>
@@ -6901,7 +7116,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>372</v>
       </c>
@@ -6912,7 +7127,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>373</v>
       </c>
@@ -6923,7 +7138,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>374</v>
       </c>
@@ -6934,7 +7149,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>375</v>
       </c>
@@ -6945,7 +7160,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>376</v>
       </c>
@@ -6956,7 +7171,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>377</v>
       </c>
@@ -6967,7 +7182,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>378</v>
       </c>
@@ -6978,7 +7193,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>379</v>
       </c>
@@ -6989,7 +7204,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>380</v>
       </c>
@@ -7000,7 +7215,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>381</v>
       </c>
@@ -7011,7 +7226,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>382</v>
       </c>
@@ -7022,7 +7237,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>383</v>
       </c>
@@ -7033,7 +7248,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>384</v>
       </c>
@@ -7044,7 +7259,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>385</v>
       </c>
@@ -7055,7 +7270,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>386</v>
       </c>
@@ -7066,7 +7281,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>387</v>
       </c>
@@ -7077,7 +7292,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>388</v>
       </c>
@@ -7088,7 +7303,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>389</v>
       </c>
@@ -7099,7 +7314,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>390</v>
       </c>
@@ -7110,7 +7325,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>391</v>
       </c>
@@ -7121,7 +7336,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="349" spans="1:3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>392</v>
       </c>
@@ -7132,7 +7347,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>393</v>
       </c>
@@ -7143,7 +7358,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>394</v>
       </c>
@@ -7154,7 +7369,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>395</v>
       </c>
@@ -7165,7 +7380,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>396</v>
       </c>
@@ -7176,7 +7391,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>397</v>
       </c>
@@ -7187,7 +7402,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>398</v>
       </c>
@@ -7198,7 +7413,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>399</v>
       </c>
@@ -7209,7 +7424,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>400</v>
       </c>
@@ -7220,7 +7435,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>401</v>
       </c>
@@ -7231,7 +7446,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>402</v>
       </c>
@@ -7242,7 +7457,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>403</v>
       </c>
@@ -7253,7 +7468,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>404</v>
       </c>
@@ -7264,7 +7479,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>405</v>
       </c>
@@ -7275,7 +7490,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>406</v>
       </c>
@@ -7286,7 +7501,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>407</v>
       </c>
@@ -7297,7 +7512,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>408</v>
       </c>
@@ -7308,7 +7523,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>409</v>
       </c>
@@ -7319,7 +7534,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="367" spans="1:3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>410</v>
       </c>
@@ -7330,7 +7545,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="368" spans="1:3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>411</v>
       </c>
@@ -7341,7 +7556,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="369" spans="1:3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>412</v>
       </c>
@@ -7352,7 +7567,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>413</v>
       </c>
@@ -7363,7 +7578,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>414</v>
       </c>
@@ -7374,7 +7589,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="372" spans="1:3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>415</v>
       </c>
@@ -7385,7 +7600,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>416</v>
       </c>
@@ -7396,7 +7611,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>417</v>
       </c>
@@ -7407,7 +7622,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>418</v>
       </c>
@@ -7418,7 +7633,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="376" spans="1:3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>419</v>
       </c>
@@ -7429,7 +7644,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="377" spans="1:3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>420</v>
       </c>
@@ -7440,7 +7655,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>421</v>
       </c>
@@ -7451,7 +7666,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="379" spans="1:3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>422</v>
       </c>
@@ -7462,7 +7677,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="380" spans="1:3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>423</v>
       </c>
@@ -7473,7 +7688,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="381" spans="1:3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>424</v>
       </c>
@@ -7484,7 +7699,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="382" spans="1:3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>425</v>
       </c>
@@ -7495,7 +7710,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="383" spans="1:3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>426</v>
       </c>
@@ -7506,7 +7721,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="384" spans="1:3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>427</v>
       </c>
@@ -7517,7 +7732,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="385" spans="1:3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>428</v>
       </c>
@@ -7528,7 +7743,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="386" spans="1:3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>429</v>
       </c>
@@ -7539,7 +7754,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="387" spans="1:3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>430</v>
       </c>
@@ -7550,7 +7765,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="388" spans="1:3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>431</v>
       </c>
@@ -7561,7 +7776,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="389" spans="1:3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>432</v>
       </c>
@@ -7572,7 +7787,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="390" spans="1:3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>433</v>
       </c>
@@ -7583,7 +7798,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="391" spans="1:3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>434</v>
       </c>
@@ -7594,7 +7809,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="392" spans="1:3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>435</v>
       </c>
@@ -7605,7 +7820,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="393" spans="1:3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>436</v>
       </c>
@@ -7616,7 +7831,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="394" spans="1:3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>437</v>
       </c>
@@ -7627,7 +7842,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="395" spans="1:3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>438</v>
       </c>
@@ -7638,7 +7853,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="396" spans="1:3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>439</v>
       </c>
@@ -7649,7 +7864,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="397" spans="1:3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>440</v>
       </c>
@@ -7660,7 +7875,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="398" spans="1:3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>441</v>
       </c>
@@ -7671,7 +7886,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="399" spans="1:3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>442</v>
       </c>
@@ -7682,7 +7897,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="400" spans="1:3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>443</v>
       </c>
@@ -7693,7 +7908,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="401" spans="1:3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>444</v>
       </c>
@@ -7704,7 +7919,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="402" spans="1:3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>445</v>
       </c>
@@ -7715,7 +7930,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="403" spans="1:3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>446</v>
       </c>
@@ -7726,7 +7941,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="404" spans="1:3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>447</v>
       </c>
@@ -7737,7 +7952,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="405" spans="1:3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>448</v>
       </c>
@@ -7748,7 +7963,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="406" spans="1:3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>449</v>
       </c>
@@ -7759,7 +7974,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="407" spans="1:3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>450</v>
       </c>
@@ -7770,7 +7985,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="408" spans="1:3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>451</v>
       </c>
@@ -7781,7 +7996,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="409" spans="1:3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>452</v>
       </c>
@@ -7792,7 +8007,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="410" spans="1:3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>453</v>
       </c>
@@ -7803,7 +8018,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="411" spans="1:3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>454</v>
       </c>
@@ -7814,7 +8029,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="412" spans="1:3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>455</v>
       </c>
@@ -7825,7 +8040,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="413" spans="1:3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>456</v>
       </c>
@@ -7836,7 +8051,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="414" spans="1:3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>457</v>
       </c>
@@ -7847,7 +8062,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="415" spans="1:3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>458</v>
       </c>
@@ -7858,7 +8073,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="416" spans="1:3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>459</v>
       </c>
@@ -7869,7 +8084,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="417" spans="1:3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>460</v>
       </c>
@@ -7880,7 +8095,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="418" spans="1:3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>461</v>
       </c>
@@ -7891,7 +8106,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="419" spans="1:3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>462</v>
       </c>
@@ -7902,7 +8117,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="420" spans="1:3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>463</v>
       </c>
@@ -7913,7 +8128,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="421" spans="1:3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>464</v>
       </c>
@@ -7924,7 +8139,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="422" spans="1:3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>465</v>
       </c>
@@ -7935,7 +8150,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="423" spans="1:3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>466</v>
       </c>
@@ -7946,7 +8161,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="424" spans="1:3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>467</v>
       </c>
@@ -7957,7 +8172,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="425" spans="1:3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>468</v>
       </c>
@@ -7968,7 +8183,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="426" spans="1:3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>469</v>
       </c>
@@ -7979,7 +8194,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="427" spans="1:3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>470</v>
       </c>
@@ -7990,7 +8205,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="428" spans="1:3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>471</v>
       </c>
@@ -8001,7 +8216,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="429" spans="1:3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>472</v>
       </c>
@@ -8012,7 +8227,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="430" spans="1:3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>473</v>
       </c>
@@ -8023,7 +8238,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="431" spans="1:3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>474</v>
       </c>
@@ -8034,7 +8249,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="432" spans="1:3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>475</v>
       </c>
@@ -8045,7 +8260,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="433" spans="1:3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>476</v>
       </c>
@@ -8056,7 +8271,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="434" spans="1:3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>477</v>
       </c>
@@ -8067,7 +8282,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="435" spans="1:3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>478</v>
       </c>
@@ -8078,7 +8293,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="436" spans="1:3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>479</v>
       </c>
@@ -8089,7 +8304,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="437" spans="1:3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>480</v>
       </c>
@@ -8100,7 +8315,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="438" spans="1:3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>481</v>
       </c>
@@ -8111,7 +8326,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="439" spans="1:3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>482</v>
       </c>
@@ -8122,7 +8337,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="440" spans="1:3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>483</v>
       </c>
@@ -8133,7 +8348,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="441" spans="1:3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>484</v>
       </c>
@@ -8144,7 +8359,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="442" spans="1:3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>485</v>
       </c>
@@ -8155,7 +8370,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="443" spans="1:3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>486</v>
       </c>
@@ -8166,7 +8381,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="444" spans="1:3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>487</v>
       </c>
@@ -8177,7 +8392,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="445" spans="1:3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>488</v>
       </c>
@@ -8188,7 +8403,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="446" spans="1:3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>489</v>
       </c>
@@ -8199,7 +8414,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="447" spans="1:3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>490</v>
       </c>
@@ -8210,7 +8425,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="448" spans="1:3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>491</v>
       </c>
@@ -8221,7 +8436,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="449" spans="1:3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>492</v>
       </c>
@@ -8232,7 +8447,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="450" spans="1:3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>493</v>
       </c>
@@ -8243,7 +8458,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="451" spans="1:3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>494</v>
       </c>
@@ -8254,7 +8469,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="452" spans="1:3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>495</v>
       </c>
@@ -8265,7 +8480,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="453" spans="1:3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>496</v>
       </c>
@@ -8276,7 +8491,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="454" spans="1:3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>497</v>
       </c>
@@ -8287,7 +8502,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="455" spans="1:3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>498</v>
       </c>
@@ -8298,7 +8513,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="456" spans="1:3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>499</v>
       </c>
@@ -8309,7 +8524,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="457" spans="1:3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>500</v>
       </c>
@@ -8320,7 +8535,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="458" spans="1:3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>501</v>
       </c>
@@ -8331,7 +8546,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="459" spans="1:3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>502</v>
       </c>
@@ -8342,7 +8557,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="460" spans="1:3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>503</v>
       </c>
@@ -8353,7 +8568,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="461" spans="1:3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>504</v>
       </c>
@@ -8364,7 +8579,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="462" spans="1:3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>505</v>
       </c>
@@ -8375,7 +8590,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="463" spans="1:3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>506</v>
       </c>
@@ -8386,7 +8601,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="464" spans="1:3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>507</v>
       </c>
@@ -8397,7 +8612,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="465" spans="1:3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>508</v>
       </c>
@@ -8408,7 +8623,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="466" spans="1:3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>509</v>
       </c>
@@ -8419,7 +8634,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="467" spans="1:3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>510</v>
       </c>
@@ -8430,7 +8645,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="468" spans="1:3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>511</v>
       </c>
@@ -8441,7 +8656,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="469" spans="1:3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>512</v>
       </c>
@@ -8452,7 +8667,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="470" spans="1:3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>513</v>
       </c>
@@ -8463,7 +8678,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="471" spans="1:3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>514</v>
       </c>
@@ -8474,7 +8689,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="472" spans="1:3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>515</v>
       </c>
@@ -8485,7 +8700,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="473" spans="1:3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>516</v>
       </c>
@@ -8496,7 +8711,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="474" spans="1:3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>517</v>
       </c>
@@ -8507,7 +8722,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="475" spans="1:3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>518</v>
       </c>
@@ -8518,7 +8733,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="476" spans="1:3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>519</v>
       </c>
@@ -8529,7 +8744,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="477" spans="1:3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>520</v>
       </c>
@@ -8540,7 +8755,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="478" spans="1:3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>521</v>
       </c>
@@ -8551,7 +8766,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="479" spans="1:3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>522</v>
       </c>
@@ -8562,7 +8777,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="480" spans="1:3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>523</v>
       </c>
@@ -8573,7 +8788,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="481" spans="1:3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>524</v>
       </c>
@@ -8584,7 +8799,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="482" spans="1:3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>525</v>
       </c>
@@ -8595,7 +8810,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="483" spans="1:3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>526</v>
       </c>
@@ -8606,7 +8821,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="484" spans="1:3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>527</v>
       </c>
@@ -8617,7 +8832,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="485" spans="1:3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>528</v>
       </c>
@@ -8628,7 +8843,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="486" spans="1:3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>529</v>
       </c>
@@ -8639,7 +8854,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="487" spans="1:3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>530</v>
       </c>
@@ -8650,7 +8865,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="488" spans="1:3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>531</v>
       </c>
@@ -8661,7 +8876,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="489" spans="1:3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>532</v>
       </c>
@@ -8672,7 +8887,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="490" spans="1:3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>533</v>
       </c>
@@ -8683,7 +8898,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="491" spans="1:3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>534</v>
       </c>
@@ -8694,7 +8909,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="492" spans="1:3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>535</v>
       </c>
@@ -8705,7 +8920,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="493" spans="1:3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>536</v>
       </c>
@@ -8716,7 +8931,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="494" spans="1:3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>537</v>
       </c>
@@ -8727,7 +8942,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="495" spans="1:3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>538</v>
       </c>
@@ -8738,7 +8953,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="496" spans="1:3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>539</v>
       </c>
@@ -8749,7 +8964,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="497" spans="1:3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>540</v>
       </c>
@@ -8760,7 +8975,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="498" spans="1:3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>541</v>
       </c>
@@ -8771,7 +8986,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="499" spans="1:3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>542</v>
       </c>
@@ -8782,7 +8997,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="500" spans="1:3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>543</v>
       </c>
@@ -8793,7 +9008,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="501" spans="1:3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>544</v>
       </c>
@@ -8804,7 +9019,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="502" spans="1:3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>545</v>
       </c>
@@ -8815,7 +9030,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="503" spans="1:3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>546</v>
       </c>
@@ -8826,7 +9041,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="504" spans="1:3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>547</v>
       </c>
@@ -8837,7 +9052,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="505" spans="1:3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>548</v>
       </c>
@@ -8848,7 +9063,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="506" spans="1:3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>549</v>
       </c>
@@ -8859,7 +9074,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="507" spans="1:3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>550</v>
       </c>
@@ -8870,7 +9085,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="508" spans="1:3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>551</v>
       </c>
@@ -8881,7 +9096,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="509" spans="1:3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>552</v>
       </c>
@@ -8892,7 +9107,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="510" spans="1:3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>553</v>
       </c>
@@ -8903,7 +9118,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="511" spans="1:3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>554</v>
       </c>
@@ -8914,7 +9129,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="512" spans="1:3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>555</v>
       </c>
@@ -8925,7 +9140,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="513" spans="1:3">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>556</v>
       </c>
@@ -8936,7 +9151,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="514" spans="1:3">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>557</v>
       </c>
@@ -8947,7 +9162,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="515" spans="1:3">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>558</v>
       </c>
@@ -8958,7 +9173,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="516" spans="1:3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>559</v>
       </c>
@@ -8969,7 +9184,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="517" spans="1:3">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>560</v>
       </c>
@@ -8980,7 +9195,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="518" spans="1:3">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>561</v>
       </c>
@@ -8991,7 +9206,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="519" spans="1:3">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>562</v>
       </c>
@@ -9002,7 +9217,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="520" spans="1:3">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>563</v>
       </c>
@@ -9013,7 +9228,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="521" spans="1:3">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>564</v>
       </c>
@@ -9024,7 +9239,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="522" spans="1:3">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>565</v>
       </c>
@@ -9035,7 +9250,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="523" spans="1:3">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>566</v>
       </c>
@@ -9046,7 +9261,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="524" spans="1:3">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>567</v>
       </c>
@@ -9057,7 +9272,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="525" spans="1:3">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>568</v>
       </c>
@@ -9068,7 +9283,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="526" spans="1:3">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>569</v>
       </c>
@@ -9079,7 +9294,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="527" spans="1:3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>570</v>
       </c>
@@ -9090,7 +9305,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="528" spans="1:3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>571</v>
       </c>
@@ -9101,7 +9316,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="529" spans="1:3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>572</v>
       </c>
@@ -9112,7 +9327,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="530" spans="1:3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>573</v>
       </c>
@@ -9123,7 +9338,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="531" spans="1:3">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>574</v>
       </c>
@@ -9134,7 +9349,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="532" spans="1:3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>575</v>
       </c>
@@ -9145,7 +9360,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="533" spans="1:3">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>576</v>
       </c>
@@ -9156,7 +9371,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="534" spans="1:3">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>577</v>
       </c>
@@ -9167,7 +9382,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="535" spans="1:3">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>578</v>
       </c>
@@ -9178,7 +9393,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="536" spans="1:3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>579</v>
       </c>
@@ -9189,7 +9404,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="537" spans="1:3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>580</v>
       </c>
@@ -9200,7 +9415,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="538" spans="1:3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>581</v>
       </c>
@@ -9211,7 +9426,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="539" spans="1:3">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>582</v>
       </c>
@@ -9222,7 +9437,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="540" spans="1:3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>583</v>
       </c>
@@ -9233,7 +9448,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="541" spans="1:3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>584</v>
       </c>
@@ -9244,7 +9459,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="542" spans="1:3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>585</v>
       </c>
@@ -9255,7 +9470,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="543" spans="1:3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>586</v>
       </c>
@@ -9266,7 +9481,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="544" spans="1:3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>587</v>
       </c>
@@ -9277,7 +9492,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="545" spans="1:3">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>588</v>
       </c>
@@ -9288,7 +9503,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="546" spans="1:3">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>589</v>
       </c>
@@ -9299,7 +9514,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="547" spans="1:3">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>590</v>
       </c>
@@ -9310,7 +9525,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="548" spans="1:3">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>591</v>
       </c>
@@ -9321,7 +9536,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="549" spans="1:3">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>592</v>
       </c>
@@ -9332,7 +9547,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="550" spans="1:3">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>593</v>
       </c>
@@ -9343,7 +9558,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="551" spans="1:3">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>594</v>
       </c>
@@ -9354,7 +9569,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="552" spans="1:3">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>595</v>
       </c>
@@ -9365,7 +9580,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="553" spans="1:3">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>596</v>
       </c>
@@ -9376,7 +9591,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="554" spans="1:3">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>597</v>
       </c>
@@ -9387,7 +9602,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="555" spans="1:3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>598</v>
       </c>
@@ -9398,7 +9613,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="556" spans="1:3">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>599</v>
       </c>
@@ -9409,7 +9624,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="557" spans="1:3">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>600</v>
       </c>
@@ -9420,7 +9635,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="558" spans="1:3">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>601</v>
       </c>
@@ -9431,7 +9646,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="559" spans="1:3">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>602</v>
       </c>
@@ -9442,7 +9657,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="560" spans="1:3">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>603</v>
       </c>
@@ -9453,7 +9668,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="561" spans="1:3">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>604</v>
       </c>
@@ -9464,7 +9679,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="562" spans="1:3">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>605</v>
       </c>
@@ -9475,7 +9690,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="563" spans="1:3">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>606</v>
       </c>
@@ -9486,7 +9701,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="564" spans="1:3">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>607</v>
       </c>
@@ -9497,7 +9712,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="565" spans="1:3">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>608</v>
       </c>
@@ -9508,7 +9723,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="566" spans="1:3">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>609</v>
       </c>
@@ -9519,7 +9734,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="567" spans="1:3">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>610</v>
       </c>
@@ -9530,7 +9745,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="568" spans="1:3">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>611</v>
       </c>
@@ -9541,7 +9756,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="569" spans="1:3">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>612</v>
       </c>
@@ -9552,7 +9767,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="570" spans="1:3">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>613</v>
       </c>
@@ -9563,7 +9778,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="571" spans="1:3">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>614</v>
       </c>
@@ -9574,7 +9789,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="572" spans="1:3">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>615</v>
       </c>
@@ -9585,7 +9800,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="573" spans="1:3">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>616</v>
       </c>
@@ -9596,7 +9811,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="574" spans="1:3">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>617</v>
       </c>
@@ -9607,7 +9822,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="575" spans="1:3">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>618</v>
       </c>
@@ -9618,7 +9833,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="576" spans="1:3">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>619</v>
       </c>
@@ -9629,7 +9844,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="577" spans="1:3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>620</v>
       </c>
@@ -9640,7 +9855,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="578" spans="1:3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>621</v>
       </c>
@@ -9651,7 +9866,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="579" spans="1:3">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>622</v>
       </c>
@@ -9662,7 +9877,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="580" spans="1:3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>623</v>
       </c>
@@ -9673,7 +9888,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="581" spans="1:3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>624</v>
       </c>
@@ -9684,7 +9899,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="582" spans="1:3">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>625</v>
       </c>
@@ -9695,7 +9910,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="583" spans="1:3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>626</v>
       </c>
@@ -9706,7 +9921,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="584" spans="1:3">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>627</v>
       </c>
@@ -9717,7 +9932,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="585" spans="1:3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>628</v>
       </c>
@@ -9728,7 +9943,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="586" spans="1:3">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>629</v>
       </c>
@@ -9739,7 +9954,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="587" spans="1:3">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>630</v>
       </c>
@@ -9750,7 +9965,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="588" spans="1:3">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>631</v>
       </c>
@@ -9761,7 +9976,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="589" spans="1:3">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>632</v>
       </c>
@@ -9772,7 +9987,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="590" spans="1:3">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>633</v>
       </c>
@@ -9783,7 +9998,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="591" spans="1:3">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>634</v>
       </c>
@@ -9794,7 +10009,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="592" spans="1:3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>635</v>
       </c>
@@ -9805,7 +10020,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="593" spans="1:3">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>636</v>
       </c>
@@ -9816,7 +10031,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="594" spans="1:3">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>637</v>
       </c>
@@ -9827,7 +10042,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="595" spans="1:3">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>638</v>
       </c>
@@ -9838,7 +10053,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="596" spans="1:3">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>639</v>
       </c>
@@ -9849,7 +10064,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="597" spans="1:3">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>640</v>
       </c>
@@ -9860,7 +10075,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="598" spans="1:3">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>641</v>
       </c>
@@ -9871,7 +10086,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="599" spans="1:3">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>642</v>
       </c>
@@ -9882,7 +10097,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="600" spans="1:3">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>643</v>
       </c>
@@ -9893,7 +10108,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="601" spans="1:3">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>644</v>
       </c>
@@ -9904,7 +10119,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="602" spans="1:3">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>645</v>
       </c>
@@ -9915,7 +10130,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="603" spans="1:3">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>646</v>
       </c>
@@ -9926,7 +10141,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="604" spans="1:3">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>647</v>
       </c>
@@ -9937,7 +10152,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="605" spans="1:3">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>648</v>
       </c>
@@ -9948,7 +10163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="606" spans="1:3">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>649</v>
       </c>
@@ -9959,7 +10174,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="607" spans="1:3">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>650</v>
       </c>
@@ -9970,7 +10185,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="608" spans="1:3">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>651</v>
       </c>
@@ -9981,7 +10196,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="609" spans="1:3">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>652</v>
       </c>
@@ -9992,7 +10207,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="610" spans="1:3">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>653</v>
       </c>
@@ -10003,7 +10218,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="611" spans="1:3">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>654</v>
       </c>
@@ -10014,7 +10229,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="612" spans="1:3">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>655</v>
       </c>
@@ -10025,7 +10240,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="613" spans="1:3">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>656</v>
       </c>
@@ -10036,7 +10251,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="614" spans="1:3">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>657</v>
       </c>
@@ -10047,7 +10262,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="615" spans="1:3">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>658</v>
       </c>
@@ -10058,7 +10273,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="616" spans="1:3">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>659</v>
       </c>
@@ -10069,7 +10284,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="617" spans="1:3">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>660</v>
       </c>
@@ -10080,7 +10295,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="618" spans="1:3">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>661</v>
       </c>
@@ -10091,7 +10306,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="619" spans="1:3">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>662</v>
       </c>
@@ -10102,7 +10317,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="620" spans="1:3">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>663</v>
       </c>
@@ -10113,7 +10328,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="621" spans="1:3">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>664</v>
       </c>
@@ -10124,7 +10339,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="622" spans="1:3">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>665</v>
       </c>
@@ -10135,7 +10350,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="623" spans="1:3">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>666</v>
       </c>
@@ -10146,7 +10361,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="624" spans="1:3">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>667</v>
       </c>
@@ -10157,7 +10372,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="625" spans="1:3">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>668</v>
       </c>
@@ -10168,7 +10383,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="626" spans="1:3">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>669</v>
       </c>
@@ -10179,7 +10394,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="627" spans="1:3">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>670</v>
       </c>
@@ -10190,7 +10405,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="628" spans="1:3">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>671</v>
       </c>
@@ -10201,7 +10416,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="629" spans="1:3">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>672</v>
       </c>
@@ -10212,7 +10427,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="630" spans="1:3">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>673</v>
       </c>
@@ -10223,7 +10438,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="631" spans="1:3">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>674</v>
       </c>
@@ -10234,7 +10449,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="632" spans="1:3">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>675</v>
       </c>
@@ -10245,7 +10460,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="633" spans="1:3">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>676</v>
       </c>
@@ -10256,7 +10471,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="634" spans="1:3">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>677</v>
       </c>
@@ -10267,7 +10482,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="635" spans="1:3">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>678</v>
       </c>
@@ -10278,7 +10493,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="636" spans="1:3">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>679</v>
       </c>
@@ -10289,7 +10504,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="637" spans="1:3">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>680</v>
       </c>
@@ -10300,7 +10515,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="638" spans="1:3">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>681</v>
       </c>
@@ -10311,7 +10526,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="639" spans="1:3">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>682</v>
       </c>
@@ -10322,7 +10537,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="640" spans="1:3">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>683</v>
       </c>
@@ -10333,7 +10548,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="641" spans="1:3">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>684</v>
       </c>
@@ -10344,7 +10559,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="642" spans="1:3">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>685</v>
       </c>
@@ -10355,7 +10570,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="643" spans="1:3">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>686</v>
       </c>
@@ -10366,7 +10581,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="644" spans="1:3">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>687</v>
       </c>
@@ -10377,7 +10592,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="645" spans="1:3">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>688</v>
       </c>
@@ -10388,7 +10603,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="646" spans="1:3">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>689</v>
       </c>
@@ -10399,7 +10614,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="647" spans="1:3">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>690</v>
       </c>
@@ -10410,7 +10625,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="648" spans="1:3">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>691</v>
       </c>
@@ -10421,7 +10636,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="649" spans="1:3">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>692</v>
       </c>
@@ -10432,7 +10647,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="650" spans="1:3">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>693</v>
       </c>
@@ -10443,7 +10658,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="651" spans="1:3">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>694</v>
       </c>
@@ -10454,7 +10669,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="652" spans="1:3">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>695</v>
       </c>
@@ -10465,7 +10680,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="653" spans="1:3">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>696</v>
       </c>
@@ -10476,7 +10691,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="654" spans="1:3">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>697</v>
       </c>
@@ -10487,7 +10702,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="655" spans="1:3">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>698</v>
       </c>
@@ -10498,7 +10713,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="656" spans="1:3">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>699</v>
       </c>
@@ -10509,7 +10724,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="657" spans="1:3">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>700</v>
       </c>
@@ -10520,7 +10735,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="658" spans="1:3">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>701</v>
       </c>
@@ -10531,7 +10746,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="659" spans="1:3">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>702</v>
       </c>
@@ -10542,7 +10757,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="660" spans="1:3">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>703</v>
       </c>
@@ -10553,7 +10768,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="661" spans="1:3">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>704</v>
       </c>
@@ -10564,7 +10779,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="662" spans="1:3">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>705</v>
       </c>
@@ -10575,7 +10790,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="663" spans="1:3">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>706</v>
       </c>
@@ -10586,7 +10801,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="664" spans="1:3">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>707</v>
       </c>
@@ -10597,7 +10812,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="665" spans="1:3">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>708</v>
       </c>
@@ -10608,7 +10823,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="666" spans="1:3">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>709</v>
       </c>
@@ -10619,7 +10834,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="667" spans="1:3">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>710</v>
       </c>
@@ -10630,7 +10845,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="668" spans="1:3">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>711</v>
       </c>
@@ -10641,7 +10856,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="669" spans="1:3">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>712</v>
       </c>
@@ -10652,7 +10867,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="670" spans="1:3">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>713</v>
       </c>
@@ -10663,7 +10878,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="671" spans="1:3">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>714</v>
       </c>
@@ -10674,7 +10889,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="672" spans="1:3">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>715</v>
       </c>
@@ -10685,7 +10900,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="673" spans="1:3">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>716</v>
       </c>
@@ -10696,7 +10911,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="674" spans="1:3">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>717</v>
       </c>
@@ -10707,7 +10922,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="675" spans="1:3">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>718</v>
       </c>
@@ -10718,7 +10933,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="676" spans="1:3">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>719</v>
       </c>
@@ -10729,7 +10944,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="677" spans="1:3">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>720</v>
       </c>
@@ -10740,7 +10955,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="678" spans="1:3">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>721</v>
       </c>
@@ -10751,7 +10966,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="679" spans="1:3">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>722</v>
       </c>
@@ -10762,7 +10977,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="680" spans="1:3">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>723</v>
       </c>
@@ -10773,7 +10988,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="681" spans="1:3">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>724</v>
       </c>
@@ -10784,7 +10999,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="682" spans="1:3">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>725</v>
       </c>
@@ -10795,7 +11010,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="683" spans="1:3">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>726</v>
       </c>
@@ -10806,7 +11021,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="684" spans="1:3">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>727</v>
       </c>
@@ -10817,7 +11032,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="685" spans="1:3">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>728</v>
       </c>
@@ -10828,7 +11043,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="686" spans="1:3">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>729</v>
       </c>
@@ -10839,7 +11054,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="687" spans="1:3">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>730</v>
       </c>
@@ -10850,7 +11065,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="688" spans="1:3">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>731</v>
       </c>
@@ -10861,7 +11076,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="689" spans="1:3">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>732</v>
       </c>
@@ -10872,7 +11087,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="690" spans="1:3">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>733</v>
       </c>
@@ -10883,7 +11098,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="691" spans="1:3">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>734</v>
       </c>
@@ -10894,7 +11109,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="692" spans="1:3">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>735</v>
       </c>
@@ -10905,7 +11120,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="693" spans="1:3">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>736</v>
       </c>
@@ -10916,7 +11131,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="694" spans="1:3">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>737</v>
       </c>
@@ -10927,7 +11142,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="695" spans="1:3">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>738</v>
       </c>
@@ -10938,7 +11153,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="696" spans="1:3">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>739</v>
       </c>
@@ -10949,7 +11164,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="697" spans="1:3">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>740</v>
       </c>
@@ -10960,7 +11175,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="698" spans="1:3">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>741</v>
       </c>
@@ -10971,7 +11186,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="699" spans="1:3">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>742</v>
       </c>
@@ -10982,7 +11197,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="700" spans="1:3">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>743</v>
       </c>
@@ -10993,7 +11208,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="701" spans="1:3">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>744</v>
       </c>
@@ -11004,7 +11219,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="702" spans="1:3">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>745</v>
       </c>
@@ -11015,7 +11230,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="703" spans="1:3">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>746</v>
       </c>
@@ -11026,7 +11241,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="704" spans="1:3">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>747</v>
       </c>
@@ -11037,7 +11252,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="705" spans="1:3">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>748</v>
       </c>
@@ -11048,7 +11263,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="706" spans="1:3">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>749</v>
       </c>
@@ -11059,7 +11274,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="707" spans="1:3">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>750</v>
       </c>
@@ -11070,7 +11285,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="708" spans="1:3">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>751</v>
       </c>
@@ -11081,7 +11296,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="709" spans="1:3">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>752</v>
       </c>
@@ -11092,7 +11307,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="710" spans="1:3">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>753</v>
       </c>
@@ -11103,7 +11318,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="711" spans="1:3">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>754</v>
       </c>
@@ -11114,7 +11329,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="712" spans="1:3">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>755</v>
       </c>
@@ -11125,7 +11340,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="713" spans="1:3">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>756</v>
       </c>
@@ -11136,7 +11351,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="714" spans="1:3">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>757</v>
       </c>
@@ -11147,7 +11362,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="715" spans="1:3">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>758</v>
       </c>
@@ -11158,7 +11373,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="716" spans="1:3">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>759</v>
       </c>
@@ -11169,7 +11384,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="717" spans="1:3">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>760</v>
       </c>
@@ -11180,7 +11395,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="718" spans="1:3">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>761</v>
       </c>
@@ -11191,7 +11406,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="719" spans="1:3">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>762</v>
       </c>
@@ -11202,7 +11417,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="720" spans="1:3">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>763</v>
       </c>
@@ -11213,7 +11428,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="721" spans="1:3">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>764</v>
       </c>
